--- a/data/excel/median_income_groups.xlsx
+++ b/data/excel/median_income_groups.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Texas A&amp;M\Senior\Fall 2021\CSCE 447 - Data Visualization\wage-gap\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B7E85C-7112-4C99-B404-A98B70F9F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794C4D7-07EB-4E8D-9878-E1B6EB674C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="median_income_groups" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,10 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1356,1236 +1358,6 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>50046</v>
-      </c>
-      <c r="B12">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>60609</v>
-      </c>
-      <c r="D12">
-        <v>93</v>
-      </c>
-      <c r="E12">
-        <v>57085</v>
-      </c>
-      <c r="F12">
-        <v>182</v>
-      </c>
-      <c r="G12">
-        <v>62611</v>
-      </c>
-      <c r="H12">
-        <v>152</v>
-      </c>
-      <c r="I12">
-        <v>72596</v>
-      </c>
-      <c r="J12">
-        <v>149</v>
-      </c>
-      <c r="K12">
-        <v>30440</v>
-      </c>
-      <c r="L12">
-        <v>82</v>
-      </c>
-      <c r="M12">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>50502</v>
-      </c>
-      <c r="B13">
-        <v>73</v>
-      </c>
-      <c r="C13">
-        <v>61455</v>
-      </c>
-      <c r="D13">
-        <v>109</v>
-      </c>
-      <c r="E13">
-        <v>58035</v>
-      </c>
-      <c r="F13">
-        <v>281</v>
-      </c>
-      <c r="G13">
-        <v>63701</v>
-      </c>
-      <c r="H13">
-        <v>140</v>
-      </c>
-      <c r="I13">
-        <v>74392</v>
-      </c>
-      <c r="J13">
-        <v>129</v>
-      </c>
-      <c r="K13">
-        <v>30500</v>
-      </c>
-      <c r="L13">
-        <v>86</v>
-      </c>
-      <c r="M13">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>51371</v>
-      </c>
-      <c r="B14">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>62527</v>
-      </c>
-      <c r="D14">
-        <v>123</v>
-      </c>
-      <c r="E14">
-        <v>59537</v>
-      </c>
-      <c r="F14">
-        <v>235</v>
-      </c>
-      <c r="G14">
-        <v>65120</v>
-      </c>
-      <c r="H14">
-        <v>116</v>
-      </c>
-      <c r="I14">
-        <v>76035</v>
-      </c>
-      <c r="J14">
-        <v>121</v>
-      </c>
-      <c r="K14">
-        <v>31231</v>
-      </c>
-      <c r="L14">
-        <v>73</v>
-      </c>
-      <c r="M14">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>52250</v>
-      </c>
-      <c r="B15">
-        <v>65</v>
-      </c>
-      <c r="C15">
-        <v>64030</v>
-      </c>
-      <c r="D15">
-        <v>134</v>
-      </c>
-      <c r="E15">
-        <v>60654</v>
-      </c>
-      <c r="F15">
-        <v>155</v>
-      </c>
-      <c r="G15">
-        <v>66424</v>
-      </c>
-      <c r="H15">
-        <v>135</v>
-      </c>
-      <c r="I15">
-        <v>77607</v>
-      </c>
-      <c r="J15">
-        <v>152</v>
-      </c>
-      <c r="K15">
-        <v>31705</v>
-      </c>
-      <c r="L15">
-        <v>61</v>
-      </c>
-      <c r="M15">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>53657</v>
-      </c>
-      <c r="B16">
-        <v>93</v>
-      </c>
-      <c r="C16">
-        <v>65910</v>
-      </c>
-      <c r="D16">
-        <v>113</v>
-      </c>
-      <c r="E16">
-        <v>62091</v>
-      </c>
-      <c r="F16">
-        <v>156</v>
-      </c>
-      <c r="G16">
-        <v>68166</v>
-      </c>
-      <c r="H16">
-        <v>136</v>
-      </c>
-      <c r="I16">
-        <v>80036</v>
-      </c>
-      <c r="J16">
-        <v>110</v>
-      </c>
-      <c r="K16">
-        <v>32220</v>
-      </c>
-      <c r="L16">
-        <v>67</v>
-      </c>
-      <c r="M16">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>55775</v>
-      </c>
-      <c r="B17">
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>68260</v>
-      </c>
-      <c r="D17">
-        <v>158</v>
-      </c>
-      <c r="E17">
-        <v>64701</v>
-      </c>
-      <c r="F17">
-        <v>297</v>
-      </c>
-      <c r="G17">
-        <v>70577</v>
-      </c>
-      <c r="H17">
-        <v>137</v>
-      </c>
-      <c r="I17">
-        <v>82078</v>
-      </c>
-      <c r="J17">
-        <v>115</v>
-      </c>
-      <c r="K17">
-        <v>33617</v>
-      </c>
-      <c r="L17">
-        <v>128</v>
-      </c>
-      <c r="M17">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>57617</v>
-      </c>
-      <c r="B18">
-        <v>115</v>
-      </c>
-      <c r="C18">
-        <v>71062</v>
-      </c>
-      <c r="D18">
-        <v>119</v>
-      </c>
-      <c r="E18">
-        <v>68011</v>
-      </c>
-      <c r="F18">
-        <v>262</v>
-      </c>
-      <c r="G18">
-        <v>72783</v>
-      </c>
-      <c r="H18">
-        <v>171</v>
-      </c>
-      <c r="I18">
-        <v>85290</v>
-      </c>
-      <c r="J18">
-        <v>122</v>
-      </c>
-      <c r="K18">
-        <v>34963</v>
-      </c>
-      <c r="L18">
-        <v>138</v>
-      </c>
-      <c r="M18">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>25431562</v>
-      </c>
-      <c r="B19">
-        <v>72572</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>25446326</v>
-      </c>
-      <c r="B20">
-        <v>83109</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>25281553</v>
-      </c>
-      <c r="B21">
-        <v>76139</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>50046</v>
-      </c>
-      <c r="B22">
-        <v>64</v>
-      </c>
-      <c r="C22">
-        <v>60609</v>
-      </c>
-      <c r="D22">
-        <v>93</v>
-      </c>
-      <c r="E22">
-        <v>57085</v>
-      </c>
-      <c r="F22">
-        <v>182</v>
-      </c>
-      <c r="G22">
-        <v>62611</v>
-      </c>
-      <c r="H22">
-        <v>152</v>
-      </c>
-      <c r="I22">
-        <v>72596</v>
-      </c>
-      <c r="J22">
-        <v>149</v>
-      </c>
-      <c r="K22">
-        <v>30440</v>
-      </c>
-      <c r="L22">
-        <v>82</v>
-      </c>
-      <c r="M22">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>50502</v>
-      </c>
-      <c r="B23">
-        <v>73</v>
-      </c>
-      <c r="C23">
-        <v>61455</v>
-      </c>
-      <c r="D23">
-        <v>109</v>
-      </c>
-      <c r="E23">
-        <v>58035</v>
-      </c>
-      <c r="F23">
-        <v>281</v>
-      </c>
-      <c r="G23">
-        <v>63701</v>
-      </c>
-      <c r="H23">
-        <v>140</v>
-      </c>
-      <c r="I23">
-        <v>74392</v>
-      </c>
-      <c r="J23">
-        <v>129</v>
-      </c>
-      <c r="K23">
-        <v>30500</v>
-      </c>
-      <c r="L23">
-        <v>86</v>
-      </c>
-      <c r="M23">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>51371</v>
-      </c>
-      <c r="B24">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>62527</v>
-      </c>
-      <c r="D24">
-        <v>123</v>
-      </c>
-      <c r="E24">
-        <v>59537</v>
-      </c>
-      <c r="F24">
-        <v>235</v>
-      </c>
-      <c r="G24">
-        <v>65120</v>
-      </c>
-      <c r="H24">
-        <v>116</v>
-      </c>
-      <c r="I24">
-        <v>76035</v>
-      </c>
-      <c r="J24">
-        <v>121</v>
-      </c>
-      <c r="K24">
-        <v>31231</v>
-      </c>
-      <c r="L24">
-        <v>73</v>
-      </c>
-      <c r="M24">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>52250</v>
-      </c>
-      <c r="B25">
-        <v>65</v>
-      </c>
-      <c r="C25">
-        <v>64030</v>
-      </c>
-      <c r="D25">
-        <v>134</v>
-      </c>
-      <c r="E25">
-        <v>60654</v>
-      </c>
-      <c r="F25">
-        <v>155</v>
-      </c>
-      <c r="G25">
-        <v>66424</v>
-      </c>
-      <c r="H25">
-        <v>135</v>
-      </c>
-      <c r="I25">
-        <v>77607</v>
-      </c>
-      <c r="J25">
-        <v>152</v>
-      </c>
-      <c r="K25">
-        <v>31705</v>
-      </c>
-      <c r="L25">
-        <v>61</v>
-      </c>
-      <c r="M25">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>53657</v>
-      </c>
-      <c r="B26">
-        <v>93</v>
-      </c>
-      <c r="C26">
-        <v>65910</v>
-      </c>
-      <c r="D26">
-        <v>113</v>
-      </c>
-      <c r="E26">
-        <v>62091</v>
-      </c>
-      <c r="F26">
-        <v>156</v>
-      </c>
-      <c r="G26">
-        <v>68166</v>
-      </c>
-      <c r="H26">
-        <v>136</v>
-      </c>
-      <c r="I26">
-        <v>80036</v>
-      </c>
-      <c r="J26">
-        <v>110</v>
-      </c>
-      <c r="K26">
-        <v>32220</v>
-      </c>
-      <c r="L26">
-        <v>67</v>
-      </c>
-      <c r="M26">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>55775</v>
-      </c>
-      <c r="B27">
-        <v>85</v>
-      </c>
-      <c r="C27">
-        <v>68260</v>
-      </c>
-      <c r="D27">
-        <v>158</v>
-      </c>
-      <c r="E27">
-        <v>64701</v>
-      </c>
-      <c r="F27">
-        <v>297</v>
-      </c>
-      <c r="G27">
-        <v>70577</v>
-      </c>
-      <c r="H27">
-        <v>137</v>
-      </c>
-      <c r="I27">
-        <v>82078</v>
-      </c>
-      <c r="J27">
-        <v>115</v>
-      </c>
-      <c r="K27">
-        <v>33617</v>
-      </c>
-      <c r="L27">
-        <v>128</v>
-      </c>
-      <c r="M27">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>57617</v>
-      </c>
-      <c r="B28">
-        <v>115</v>
-      </c>
-      <c r="C28">
-        <v>71062</v>
-      </c>
-      <c r="D28">
-        <v>119</v>
-      </c>
-      <c r="E28">
-        <v>68011</v>
-      </c>
-      <c r="F28">
-        <v>262</v>
-      </c>
-      <c r="G28">
-        <v>72783</v>
-      </c>
-      <c r="H28">
-        <v>171</v>
-      </c>
-      <c r="I28">
-        <v>85290</v>
-      </c>
-      <c r="J28">
-        <v>122</v>
-      </c>
-      <c r="K28">
-        <v>34963</v>
-      </c>
-      <c r="L28">
-        <v>138</v>
-      </c>
-      <c r="M28">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25431562</v>
-      </c>
-      <c r="B29">
-        <v>72572</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>25446326</v>
-      </c>
-      <c r="B30">
-        <v>83109</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>25281553</v>
-      </c>
-      <c r="B31">
-        <v>76139</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>50046</v>
-      </c>
-      <c r="B32">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>60609</v>
-      </c>
-      <c r="D32">
-        <v>93</v>
-      </c>
-      <c r="E32">
-        <v>57085</v>
-      </c>
-      <c r="F32">
-        <v>182</v>
-      </c>
-      <c r="G32">
-        <v>62611</v>
-      </c>
-      <c r="H32">
-        <v>152</v>
-      </c>
-      <c r="I32">
-        <v>72596</v>
-      </c>
-      <c r="J32">
-        <v>149</v>
-      </c>
-      <c r="K32">
-        <v>30440</v>
-      </c>
-      <c r="L32">
-        <v>82</v>
-      </c>
-      <c r="M32">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>50502</v>
-      </c>
-      <c r="B33">
-        <v>73</v>
-      </c>
-      <c r="C33">
-        <v>61455</v>
-      </c>
-      <c r="D33">
-        <v>109</v>
-      </c>
-      <c r="E33">
-        <v>58035</v>
-      </c>
-      <c r="F33">
-        <v>281</v>
-      </c>
-      <c r="G33">
-        <v>63701</v>
-      </c>
-      <c r="H33">
-        <v>140</v>
-      </c>
-      <c r="I33">
-        <v>74392</v>
-      </c>
-      <c r="J33">
-        <v>129</v>
-      </c>
-      <c r="K33">
-        <v>30500</v>
-      </c>
-      <c r="L33">
-        <v>86</v>
-      </c>
-      <c r="M33">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>51371</v>
-      </c>
-      <c r="B34">
-        <v>53</v>
-      </c>
-      <c r="C34">
-        <v>62527</v>
-      </c>
-      <c r="D34">
-        <v>123</v>
-      </c>
-      <c r="E34">
-        <v>59537</v>
-      </c>
-      <c r="F34">
-        <v>235</v>
-      </c>
-      <c r="G34">
-        <v>65120</v>
-      </c>
-      <c r="H34">
-        <v>116</v>
-      </c>
-      <c r="I34">
-        <v>76035</v>
-      </c>
-      <c r="J34">
-        <v>121</v>
-      </c>
-      <c r="K34">
-        <v>31231</v>
-      </c>
-      <c r="L34">
-        <v>73</v>
-      </c>
-      <c r="M34">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>52250</v>
-      </c>
-      <c r="B35">
-        <v>65</v>
-      </c>
-      <c r="C35">
-        <v>64030</v>
-      </c>
-      <c r="D35">
-        <v>134</v>
-      </c>
-      <c r="E35">
-        <v>60654</v>
-      </c>
-      <c r="F35">
-        <v>155</v>
-      </c>
-      <c r="G35">
-        <v>66424</v>
-      </c>
-      <c r="H35">
-        <v>135</v>
-      </c>
-      <c r="I35">
-        <v>77607</v>
-      </c>
-      <c r="J35">
-        <v>152</v>
-      </c>
-      <c r="K35">
-        <v>31705</v>
-      </c>
-      <c r="L35">
-        <v>61</v>
-      </c>
-      <c r="M35">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>53657</v>
-      </c>
-      <c r="B36">
-        <v>93</v>
-      </c>
-      <c r="C36">
-        <v>65910</v>
-      </c>
-      <c r="D36">
-        <v>113</v>
-      </c>
-      <c r="E36">
-        <v>62091</v>
-      </c>
-      <c r="F36">
-        <v>156</v>
-      </c>
-      <c r="G36">
-        <v>68166</v>
-      </c>
-      <c r="H36">
-        <v>136</v>
-      </c>
-      <c r="I36">
-        <v>80036</v>
-      </c>
-      <c r="J36">
-        <v>110</v>
-      </c>
-      <c r="K36">
-        <v>32220</v>
-      </c>
-      <c r="L36">
-        <v>67</v>
-      </c>
-      <c r="M36">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>55775</v>
-      </c>
-      <c r="B37">
-        <v>85</v>
-      </c>
-      <c r="C37">
-        <v>68260</v>
-      </c>
-      <c r="D37">
-        <v>158</v>
-      </c>
-      <c r="E37">
-        <v>64701</v>
-      </c>
-      <c r="F37">
-        <v>297</v>
-      </c>
-      <c r="G37">
-        <v>70577</v>
-      </c>
-      <c r="H37">
-        <v>137</v>
-      </c>
-      <c r="I37">
-        <v>82078</v>
-      </c>
-      <c r="J37">
-        <v>115</v>
-      </c>
-      <c r="K37">
-        <v>33617</v>
-      </c>
-      <c r="L37">
-        <v>128</v>
-      </c>
-      <c r="M37">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>57617</v>
-      </c>
-      <c r="B38">
-        <v>115</v>
-      </c>
-      <c r="C38">
-        <v>71062</v>
-      </c>
-      <c r="D38">
-        <v>119</v>
-      </c>
-      <c r="E38">
-        <v>68011</v>
-      </c>
-      <c r="F38">
-        <v>262</v>
-      </c>
-      <c r="G38">
-        <v>72783</v>
-      </c>
-      <c r="H38">
-        <v>171</v>
-      </c>
-      <c r="I38">
-        <v>85290</v>
-      </c>
-      <c r="J38">
-        <v>122</v>
-      </c>
-      <c r="K38">
-        <v>34963</v>
-      </c>
-      <c r="L38">
-        <v>138</v>
-      </c>
-      <c r="M38">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>25431562</v>
-      </c>
-      <c r="B39">
-        <v>72572</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>4</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>25446326</v>
-      </c>
-      <c r="B40">
-        <v>83109</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>4</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>25281553</v>
-      </c>
-      <c r="B41">
-        <v>76139</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>2019</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
